--- a/Cybersecurity Acronyms.xlsx
+++ b/Cybersecurity Acronyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaun\CybersecurityNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F72D08-E72A-4522-B5B0-AB8A76F6A863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAEB78D-D452-44C9-8DB8-B208E4A701AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{DB4E31DD-F0D1-4561-91D3-23073866705E}"/>
   </bookViews>
